--- a/Medals.xlsx
+++ b/Medals.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" r:id="rId3" sheetId="1"/>
+    <sheet name="Details" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t>Rank</t>
   </si>
@@ -543,14 +542,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -558,10 +567,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -569,2187 +578,3275 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="7" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G2" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="G3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" t="s" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" t="s" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" t="s" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" t="s" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D31" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" t="s" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D32" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" t="s" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="D33" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" t="s" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
+    <row r="38" ht="13.55" customHeight="1">
+      <c r="A38" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="39" ht="13.55" customHeight="1">
+      <c r="A39" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="40" ht="13.55" customHeight="1">
+      <c r="A40" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
+    <row r="41" ht="13.55" customHeight="1">
+      <c r="A41" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
+    <row r="44" ht="13.55" customHeight="1">
+      <c r="A44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s">
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s">
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s">
+    <row r="48" ht="13.55" customHeight="1">
+      <c r="A48" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="E48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
+    <row r="49" ht="13.55" customHeight="1">
+      <c r="A49" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C49" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s">
+    <row r="50" ht="13.55" customHeight="1">
+      <c r="A50" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s">
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="C51" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
+    <row r="52" ht="13.55" customHeight="1">
+      <c r="A52" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="C52" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s">
+    <row r="53" ht="13.55" customHeight="1">
+      <c r="A53" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="C53" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
+    <row r="54" ht="13.55" customHeight="1">
+      <c r="A54" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C54" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
+    <row r="55" ht="13.55" customHeight="1">
+      <c r="A55" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
+    <row r="56" ht="13.55" customHeight="1">
+      <c r="A56" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C56" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" t="s" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
+    <row r="57" ht="13.55" customHeight="1">
+      <c r="A57" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="C57" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
+    <row r="58" ht="13.55" customHeight="1">
+      <c r="A58" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="C58" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
+    <row r="59" ht="13.55" customHeight="1">
+      <c r="A59" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="C59" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
+    <row r="60" ht="13.55" customHeight="1">
+      <c r="A60" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="C60" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
+    <row r="61" ht="13.55" customHeight="1">
+      <c r="A61" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="C61" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s">
+    <row r="62" ht="13.55" customHeight="1">
+      <c r="A62" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="C62" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
+    <row r="63" ht="13.55" customHeight="1">
+      <c r="A63" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="C63" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s">
+    <row r="64" ht="13.55" customHeight="1">
+      <c r="A64" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="C64" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s">
+    <row r="65" ht="13.55" customHeight="1">
+      <c r="A65" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="C65" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
+    <row r="66" ht="13.55" customHeight="1">
+      <c r="A66" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E66" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="C66" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s">
+    <row r="67" ht="13.55" customHeight="1">
+      <c r="A67" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D67" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="E67" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s">
+    <row r="68" ht="13.55" customHeight="1">
+      <c r="A68" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="C68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
+    <row r="69" ht="13.55" customHeight="1">
+      <c r="A69" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="C69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="E69" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="s" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s">
+    <row r="70" ht="13.55" customHeight="1">
+      <c r="A70" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="C70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="C70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
+    <row r="71" ht="13.55" customHeight="1">
+      <c r="A71" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="C71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="C71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s">
+    <row r="72" ht="13.55" customHeight="1">
+      <c r="A72" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="C72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s">
+    <row r="73" ht="13.55" customHeight="1">
+      <c r="A73" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="C73" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="C73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
+    <row r="74" ht="13.55" customHeight="1">
+      <c r="A74" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="C74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
+    <row r="75" ht="13.55" customHeight="1">
+      <c r="A75" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="C75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s">
+    <row r="76" ht="13.55" customHeight="1">
+      <c r="A76" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="C76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s">
+    <row r="77" ht="13.55" customHeight="1">
+      <c r="A77" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="C77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="C77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
+    <row r="78" ht="13.55" customHeight="1">
+      <c r="A78" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="C78" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>73</v>
-      </c>
-      <c r="F78" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="C78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s">
+    <row r="79" ht="13.55" customHeight="1">
+      <c r="A79" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="C79" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>73</v>
-      </c>
-      <c r="F79" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="C79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s">
+    <row r="80" ht="13.55" customHeight="1">
+      <c r="A80" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="C80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
+    <row r="81" ht="13.55" customHeight="1">
+      <c r="A81" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="C81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="C81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s">
+    <row r="82" ht="13.55" customHeight="1">
+      <c r="A82" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="C82" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="C82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s">
+    <row r="83" ht="13.55" customHeight="1">
+      <c r="A83" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="C83" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" t="s">
-        <v>73</v>
-      </c>
-      <c r="F83" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="C83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s">
+    <row r="84" ht="13.55" customHeight="1">
+      <c r="A84" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="C84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" t="s">
-        <v>73</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E84" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s">
+    <row r="85" ht="13.55" customHeight="1">
+      <c r="A85" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="C85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E85" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
+    <row r="86" ht="13.55" customHeight="1">
+      <c r="A86" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="C86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D86" t="s">
-        <v>73</v>
-      </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s">
+      <c r="C86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s">
+    <row r="87" ht="13.55" customHeight="1">
+      <c r="A87" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="C87" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="C87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s">
+    <row r="88" ht="13.55" customHeight="1">
+      <c r="A88" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="C88" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" t="s">
-        <v>73</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>7</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="C88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s">
+    <row r="89" ht="13.55" customHeight="1">
+      <c r="A89" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="C89" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" t="s">
-        <v>73</v>
-      </c>
-      <c r="E89" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="C89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s">
+    <row r="90" ht="13.55" customHeight="1">
+      <c r="A90" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="C90" t="s">
-        <v>73</v>
-      </c>
-      <c r="D90" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="C90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s">
+    <row r="91" ht="13.55" customHeight="1">
+      <c r="A91" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="C91" t="s">
-        <v>73</v>
-      </c>
-      <c r="D91" t="s">
-        <v>73</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="C91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s">
+    <row r="92" ht="13.55" customHeight="1">
+      <c r="A92" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="C92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" t="s">
-        <v>73</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>7</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="C92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s">
+    <row r="93" ht="13.55" customHeight="1">
+      <c r="A93" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="C93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" t="s">
-        <v>73</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>7</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="C93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G93" t="s" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s">
+    <row r="94" ht="13.55" customHeight="1">
+      <c r="A94" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="C94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="C94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="G94" t="s" s="2">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>